--- a/titlePilotStudy/data/FRA.xlsx
+++ b/titlePilotStudy/data/FRA.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roxana\Desktop\CONFERINTE toamna 2019\malaga 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HU-BOX\Seafile\COST\dataTitleStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="1" shapeId="0">
+    <comment ref="G15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V63" authorId="0" shapeId="0">
+    <comment ref="V61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="414">
   <si>
     <t>Identifier</t>
   </si>
@@ -1061,6 +1061,297 @@
   </si>
   <si>
     <t>village</t>
+  </si>
+  <si>
+    <t>omnibus</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>rubis sur l'ongle</t>
+  </si>
+  <si>
+    <t>Le château de Pinon</t>
+  </si>
+  <si>
+    <t>petit chose</t>
+  </si>
+  <si>
+    <t>tout le monde</t>
+  </si>
+  <si>
+    <t>indef</t>
+  </si>
+  <si>
+    <t>cavalier</t>
+  </si>
+  <si>
+    <t>nuit</t>
+  </si>
+  <si>
+    <t>dieux</t>
+  </si>
+  <si>
+    <t>soif</t>
+  </si>
+  <si>
+    <t>sœur</t>
+  </si>
+  <si>
+    <t>fleurs</t>
+  </si>
+  <si>
+    <t>momie</t>
+  </si>
+  <si>
+    <t>pôle</t>
+  </si>
+  <si>
+    <t>je</t>
+  </si>
+  <si>
+    <t>quand, grande</t>
+  </si>
+  <si>
+    <t>colporteur</t>
+  </si>
+  <si>
+    <t>filles</t>
+  </si>
+  <si>
+    <t>professeur</t>
+  </si>
+  <si>
+    <t>mère</t>
+  </si>
+  <si>
+    <t>amie</t>
+  </si>
+  <si>
+    <t>pupile</t>
+  </si>
+  <si>
+    <t>esclave</t>
+  </si>
+  <si>
+    <t>milliardaires</t>
+  </si>
+  <si>
+    <t>milliardaines</t>
+  </si>
+  <si>
+    <t>conspiration</t>
+  </si>
+  <si>
+    <t>frère</t>
+  </si>
+  <si>
+    <t>famille</t>
+  </si>
+  <si>
+    <t>conscience</t>
+  </si>
+  <si>
+    <t>vie</t>
+  </si>
+  <si>
+    <t>abbé</t>
+  </si>
+  <si>
+    <t>maréchale</t>
+  </si>
+  <si>
+    <t>espérance</t>
+  </si>
+  <si>
+    <t>âme</t>
+  </si>
+  <si>
+    <t>marchand</t>
+  </si>
+  <si>
+    <t>poison</t>
+  </si>
+  <si>
+    <t>baronne</t>
+  </si>
+  <si>
+    <t>résurrection</t>
+  </si>
+  <si>
+    <t>marquise</t>
+  </si>
+  <si>
+    <t>mexicaine</t>
+  </si>
+  <si>
+    <t>méxicaine</t>
+  </si>
+  <si>
+    <t>maris</t>
+  </si>
+  <si>
+    <t>piège</t>
+  </si>
+  <si>
+    <t>mademoiselle</t>
+  </si>
+  <si>
+    <t>côté</t>
+  </si>
+  <si>
+    <t>compagnon</t>
+  </si>
+  <si>
+    <t>tour</t>
+  </si>
+  <si>
+    <t>maison</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>capitaine</t>
+  </si>
+  <si>
+    <t>ans</t>
+  </si>
+  <si>
+    <t>Kabylie</t>
+  </si>
+  <si>
+    <t>campagne</t>
+  </si>
+  <si>
+    <t>volontaires</t>
+  </si>
+  <si>
+    <t>aube</t>
+  </si>
+  <si>
+    <t>journée</t>
+  </si>
+  <si>
+    <t>arkansas</t>
+  </si>
+  <si>
+    <t>pinon</t>
+  </si>
+  <si>
+    <t>numa roumestan</t>
+  </si>
+  <si>
+    <t>jeanne</t>
+  </si>
+  <si>
+    <t>thérèse</t>
+  </si>
+  <si>
+    <t>wilhelm storitz</t>
+  </si>
+  <si>
+    <t>laurent</t>
+  </si>
+  <si>
+    <t>nélida</t>
+  </si>
+  <si>
+    <t>hervé</t>
+  </si>
+  <si>
+    <t>france</t>
+  </si>
+  <si>
+    <t>nanon</t>
+  </si>
+  <si>
+    <t>swann</t>
+  </si>
+  <si>
+    <t>de malepeire</t>
+  </si>
+  <si>
+    <t>vénus</t>
+  </si>
+  <si>
+    <t>de sade</t>
+  </si>
+  <si>
+    <t>rocambole</t>
+  </si>
+  <si>
+    <t>pierre</t>
+  </si>
+  <si>
+    <t>marnière</t>
+  </si>
+  <si>
+    <t>jules</t>
+  </si>
+  <si>
+    <t>bel-ami</t>
+  </si>
+  <si>
+    <t>romain kalbris</t>
+  </si>
+  <si>
+    <t>ramuntcho</t>
+  </si>
+  <si>
+    <t>yves</t>
+  </si>
+  <si>
+    <t>ariadne</t>
+  </si>
+  <si>
+    <t>marguerite</t>
+  </si>
+  <si>
+    <t>lecoq</t>
+  </si>
+  <si>
+    <t>orcival</t>
+  </si>
+  <si>
+    <t>ellenore</t>
+  </si>
+  <si>
+    <t>militona</t>
+  </si>
+  <si>
+    <t>alberte</t>
+  </si>
+  <si>
+    <t>salammbo</t>
+  </si>
+  <si>
+    <t>bovary</t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t>folla</t>
+  </si>
+  <si>
+    <t>albert savarus</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>pons</t>
+  </si>
+  <si>
+    <t>trappeurs</t>
+  </si>
+  <si>
+    <t>marie-claire</t>
+  </si>
+  <si>
+    <t>païenne</t>
   </si>
   <si>
     <r>
@@ -1069,433 +1360,39 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri (Corps)_x0000_"/>
       </rPr>
       <t>s</t>
     </r>
   </si>
   <si>
-    <t>omnibus</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>rubis sur l'ongle</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>La petite Jeanne</t>
-    </r>
-  </si>
-  <si>
-    <t>Le château de Pinon</t>
-  </si>
-  <si>
-    <r>
-      <t>Le</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> petit chose</t>
-    </r>
-  </si>
-  <si>
-    <t>petit chose</t>
-  </si>
-  <si>
-    <t>tout le monde</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Une pupille </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gênante</t>
-    </r>
-  </si>
-  <si>
-    <t>indef</t>
-  </si>
-  <si>
-    <t>cavalier</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les Errants </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>de nuit</t>
-    </r>
-  </si>
-  <si>
-    <t>nuit</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">le Loup </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>blanc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">L'Éducation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sentimentale</t>
-    </r>
-  </si>
-  <si>
-    <t>dieux</t>
-  </si>
-  <si>
-    <t>soif</t>
-  </si>
-  <si>
-    <t>sœur</t>
-  </si>
-  <si>
-    <t>fleurs</t>
-  </si>
-  <si>
-    <t>momie</t>
-  </si>
-  <si>
-    <t>pôle</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Marguerite, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ou Deux amours</t>
-    </r>
-  </si>
-  <si>
-    <t>je</t>
-  </si>
-  <si>
-    <t>quand, grande</t>
-  </si>
-  <si>
-    <t>colporteur</t>
-  </si>
-  <si>
-    <t>filles</t>
-  </si>
-  <si>
-    <t>professeur</t>
-  </si>
-  <si>
-    <t>mère</t>
-  </si>
-  <si>
-    <t>amie</t>
-  </si>
-  <si>
-    <t>pupile</t>
-  </si>
-  <si>
-    <t>esclave</t>
-  </si>
-  <si>
-    <t>milliardaires</t>
-  </si>
-  <si>
-    <t>milliardaines</t>
-  </si>
-  <si>
-    <t>conspiration</t>
-  </si>
-  <si>
-    <t>frère</t>
-  </si>
-  <si>
-    <t>famille</t>
-  </si>
-  <si>
-    <t>conscience</t>
-  </si>
-  <si>
-    <t>vie</t>
-  </si>
-  <si>
-    <t>abbé</t>
-  </si>
-  <si>
-    <t>maréchale</t>
-  </si>
-  <si>
-    <t>espérance</t>
-  </si>
-  <si>
-    <t>âme</t>
-  </si>
-  <si>
-    <t>marchand</t>
-  </si>
-  <si>
-    <t>poison</t>
-  </si>
-  <si>
-    <t>baronne</t>
-  </si>
-  <si>
-    <t>résurrection</t>
-  </si>
-  <si>
-    <t>marquise</t>
-  </si>
-  <si>
-    <t>mexicaine</t>
-  </si>
-  <si>
-    <t>méxicaine</t>
-  </si>
-  <si>
-    <t>maris</t>
-  </si>
-  <si>
-    <t>piège</t>
-  </si>
-  <si>
-    <t>mademoiselle</t>
-  </si>
-  <si>
-    <t>côté</t>
-  </si>
-  <si>
-    <t>compagnon</t>
-  </si>
-  <si>
-    <t>tour</t>
-  </si>
-  <si>
-    <t>maison</t>
-  </si>
-  <si>
-    <t>secret</t>
-  </si>
-  <si>
-    <t>Hervé and Château de Pinon twice</t>
-  </si>
-  <si>
-    <t>capitaine</t>
-  </si>
-  <si>
-    <t>ans</t>
-  </si>
-  <si>
-    <t>Kabylie</t>
-  </si>
-  <si>
-    <t>campagne</t>
-  </si>
-  <si>
-    <t>volontaires</t>
-  </si>
-  <si>
-    <t>aube</t>
-  </si>
-  <si>
-    <t>journée</t>
-  </si>
-  <si>
-    <t>We can adnotate places but note dates/ time (journée, année, etc.)</t>
-  </si>
-  <si>
-    <t>arkansas</t>
-  </si>
-  <si>
-    <t>pinon</t>
-  </si>
-  <si>
-    <t>numa roumestan</t>
-  </si>
-  <si>
-    <t>jeanne</t>
-  </si>
-  <si>
-    <t>thérèse</t>
-  </si>
-  <si>
-    <t>wilhelm storitz</t>
-  </si>
-  <si>
-    <t>laurent</t>
-  </si>
-  <si>
-    <t>nélida</t>
-  </si>
-  <si>
-    <t>hervé</t>
-  </si>
-  <si>
-    <t>france</t>
-  </si>
-  <si>
-    <t>nanon</t>
-  </si>
-  <si>
-    <t>swann</t>
-  </si>
-  <si>
-    <t>de malepeire</t>
-  </si>
-  <si>
-    <t>vénus</t>
-  </si>
-  <si>
-    <t>de sade</t>
-  </si>
-  <si>
-    <t>rocambole</t>
-  </si>
-  <si>
-    <t>pierre</t>
-  </si>
-  <si>
-    <t>marnière</t>
-  </si>
-  <si>
-    <t>jules</t>
-  </si>
-  <si>
-    <t>bel-ami</t>
-  </si>
-  <si>
-    <t>romain kalbris</t>
-  </si>
-  <si>
-    <t>ramuntcho</t>
-  </si>
-  <si>
-    <t>yves</t>
-  </si>
-  <si>
-    <t>ariadne</t>
-  </si>
-  <si>
-    <t>marguerite</t>
-  </si>
-  <si>
-    <t>lecoq</t>
-  </si>
-  <si>
-    <t>orcival</t>
-  </si>
-  <si>
-    <t>ellenore</t>
-  </si>
-  <si>
-    <t>militona</t>
-  </si>
-  <si>
-    <t>alberte</t>
-  </si>
-  <si>
-    <t>salammbo</t>
-  </si>
-  <si>
-    <t>bovary</t>
-  </si>
-  <si>
-    <t>fortune</t>
-  </si>
-  <si>
-    <t>folla</t>
-  </si>
-  <si>
-    <t>albert savarus</t>
-  </si>
-  <si>
-    <t>cap</t>
-  </si>
-  <si>
-    <t>pons</t>
-  </si>
-  <si>
-    <t>trappeurs</t>
-  </si>
-  <si>
-    <t>marie-claire</t>
-  </si>
-  <si>
-    <t>païenne</t>
+    <t>La petite Jeanne</t>
+  </si>
+  <si>
+    <t>Le petit chose</t>
+  </si>
+  <si>
+    <t>Une pupille gênante</t>
+  </si>
+  <si>
+    <t>Les Errants de nuit</t>
+  </si>
+  <si>
+    <t>le Loup blanc</t>
+  </si>
+  <si>
+    <t>L'Éducation sentimentale</t>
+  </si>
+  <si>
+    <t>Marguerite, ou Deux amours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1509,18 +1406,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri (Corps)_x0000_"/>
     </font>
     <font>
       <b/>
@@ -1548,6 +1433,36 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Corps)_x0000_"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1574,69 +1489,42 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1914,183 +1802,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB84"/>
+  <dimension ref="A1:AB82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="119" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="S7" sqref="S7"/>
+      <selection pane="bottomLeft" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="10.81640625" style="9"/>
-    <col min="8" max="8" width="9.81640625" style="9" customWidth="1"/>
-    <col min="9" max="12" width="10.81640625" style="9"/>
-    <col min="13" max="13" width="7.81640625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="7" style="9" customWidth="1"/>
-    <col min="15" max="15" width="6" style="9" customWidth="1"/>
-    <col min="16" max="17" width="10.81640625" style="9"/>
-    <col min="18" max="18" width="5.6328125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="7.36328125" style="9" customWidth="1"/>
-    <col min="20" max="22" width="10.81640625" style="9"/>
-    <col min="23" max="23" width="6.6328125" style="9" customWidth="1"/>
-    <col min="24" max="24" width="7.453125" style="9" customWidth="1"/>
-    <col min="25" max="28" width="10.81640625" style="9"/>
+    <col min="7" max="7" width="10.77734375" style="2"/>
+    <col min="8" max="8" width="9.77734375" style="2" customWidth="1"/>
+    <col min="9" max="12" width="10.77734375" style="2"/>
+    <col min="13" max="13" width="7.77734375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6" style="2" customWidth="1"/>
+    <col min="16" max="17" width="10.77734375" style="2"/>
+    <col min="18" max="18" width="5.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" style="2" customWidth="1"/>
+    <col min="20" max="22" width="10.77734375" style="2"/>
+    <col min="23" max="23" width="6.6640625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="7.44140625" style="2" customWidth="1"/>
+    <col min="25" max="28" width="10.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="F1" t="s">
-        <v>367</v>
+    <row r="1" spans="1:28" ht="57.6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:28">
-      <c r="B2" t="s">
-        <v>375</v>
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7">
+        <v>21777</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="58">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>30</v>
+    <row r="3" spans="1:28">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7">
+        <v>28266</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:28" ht="28.8">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>21777</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7">
+        <v>35659</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
+      <c r="F4" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>308</v>
+        <v>31</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>31</v>
+        <v>404</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="8"/>
+      <c r="S4" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="T4" s="8" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="U4" s="8" t="s">
         <v>31</v>
@@ -2098,8 +2144,12 @@
       <c r="V4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
+      <c r="W4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Y4" s="9" t="s">
         <v>31</v>
       </c>
@@ -2113,64 +2163,64 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:28" ht="57.6">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>28266</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>38</v>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>90166</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>31</v>
+        <v>366</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>272</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>415</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>31</v>
+        <v>403</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="U5" s="8" t="s">
         <v>31</v>
@@ -2187,50 +2237,50 @@
       <c r="Y5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Z5" s="8" t="s">
+      <c r="Z5" s="9" t="s">
         <v>274</v>
       </c>
       <c r="AA5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AB5" s="8" t="s">
+      <c r="AB5" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="29">
-      <c r="A6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:28">
+      <c r="A6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>35659</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
+        <v>139255</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>31</v>
+        <v>306</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>31</v>
@@ -2239,13 +2289,13 @@
         <v>31</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>414</v>
+        <v>31</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>31</v>
@@ -2253,13 +2303,13 @@
       <c r="S6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="V6" s="8" t="s">
+      <c r="T6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" s="9" t="s">
         <v>31</v>
       </c>
       <c r="W6" s="8" t="s">
@@ -2281,64 +2331,64 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="58">
-      <c r="A7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:28" ht="28.8">
+      <c r="A7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>90166</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>44</v>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
+        <v>38400</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>376</v>
+        <v>31</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>272</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="U7" s="8" t="s">
         <v>31</v>
@@ -2365,60 +2415,69 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:28" ht="28.8">
+      <c r="A8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>139255</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>49</v>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
+        <v>42271</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>306</v>
+        <v>31</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>31</v>
+        <v>400</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="S8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="W8" s="8" t="s">
@@ -2440,28 +2499,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="29">
-      <c r="A9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:28" ht="28.8">
+      <c r="A9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <v>38400</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>52</v>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
+        <v>111047</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>14</v>
@@ -2485,28 +2544,30 @@
         <v>272</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="8"/>
+      <c r="S9" s="8" t="s">
+        <v>298</v>
+      </c>
       <c r="T9" s="8" t="s">
         <v>278</v>
       </c>
       <c r="U9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="V9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="X9" s="14" t="s">
+      <c r="V9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="8" t="s">
         <v>31</v>
       </c>
       <c r="Y9" s="9" t="s">
@@ -2522,25 +2583,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="29">
-      <c r="A10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:28" ht="28.8">
+      <c r="A10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>42271</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>55</v>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
+        <v>93200</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>57</v>
@@ -2552,12 +2613,12 @@
         <v>17</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>31</v>
+        <v>406</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="N10" s="8" t="s">
@@ -2567,15 +2628,17 @@
         <v>272</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>410</v>
+        <v>31</v>
       </c>
       <c r="R10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="8"/>
+      <c r="S10" s="8" t="s">
+        <v>298</v>
+      </c>
       <c r="T10" s="8" t="s">
         <v>278</v>
       </c>
@@ -2604,73 +2667,73 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="29">
-      <c r="A11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:28" ht="28.8">
+      <c r="A11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>111047</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>59</v>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
+        <v>93657</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>31</v>
+        <v>309</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>307</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>412</v>
+        <v>31</v>
       </c>
       <c r="R11" s="8" t="s">
         <v>31</v>
       </c>
       <c r="S11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="W11" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="V11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="W11" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="X11" s="8" t="s">
         <v>31</v>
@@ -2688,52 +2751,52 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="29">
-      <c r="A12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:28" s="1" customFormat="1" ht="28.8">
+      <c r="A12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>93200</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>62</v>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
+        <v>104131</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>31</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="8" t="s">
         <v>31</v>
@@ -2742,16 +2805,16 @@
         <v>31</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>31</v>
+        <v>311</v>
       </c>
       <c r="W12" s="8" t="s">
         <v>31</v>
@@ -2772,71 +2835,73 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="29">
-      <c r="A13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:28" ht="28.8">
+      <c r="A13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
-        <v>93657</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7">
+        <v>50316</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>65</v>
+      <c r="F13" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>66</v>
+        <v>407</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>310</v>
+        <v>31</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="S13" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="O13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" s="8"/>
       <c r="T13" s="8" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>311</v>
+        <v>31</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="X13" s="8" t="s">
         <v>31</v>
@@ -2854,113 +2919,117 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="5" customFormat="1" ht="29">
+    <row r="14" spans="1:28" ht="28.8">
       <c r="A14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
-        <v>104131</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="10" t="s">
+      <c r="C14" s="7">
+        <v>332</v>
+      </c>
+      <c r="D14" s="7">
+        <v>44767</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB14" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="28.8">
+      <c r="A15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7">
+        <v>87744</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="W14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="X14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z14" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB14" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="29">
-      <c r="A15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <v>50316</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>17</v>
@@ -2984,16 +3053,16 @@
         <v>31</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="S15" s="8" t="s">
         <v>298</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>273</v>
+        <v>31</v>
       </c>
       <c r="U15" s="8" t="s">
         <v>31</v>
@@ -3020,57 +3089,55 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="29">
-      <c r="A16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:28" ht="28.8">
+      <c r="A16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2">
-        <v>332</v>
-      </c>
-      <c r="D16" s="2">
-        <v>44767</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>75</v>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7">
+        <v>85692</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>31</v>
+        <v>368</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>31</v>
@@ -3079,16 +3146,16 @@
         <v>31</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>298</v>
+        <v>278</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="X16" s="8" t="s">
         <v>31</v>
@@ -3106,115 +3173,115 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="5" customFormat="1" ht="29">
+    <row r="17" spans="1:28" ht="43.2">
       <c r="A17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4">
-        <v>87744</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7">
+        <v>59906</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="T17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="V17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="X17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z17" s="11" t="s">
+      <c r="F17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z17" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="AA17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB17" s="11" t="s">
+      <c r="AA17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB17" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="29">
-      <c r="A18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:28" ht="28.8">
+      <c r="A18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <v>85692</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7">
+        <v>50336</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>65</v>
+      <c r="F18" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>81</v>
+        <v>409</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>12</v>
@@ -3235,19 +3302,19 @@
         <v>272</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>31</v>
+        <v>315</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="U18" s="8" t="s">
         <v>31</v>
@@ -3274,28 +3341,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="43.5">
-      <c r="A19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:28">
+      <c r="A19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
-        <v>59906</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>40</v>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7">
+        <v>24998</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>16</v>
@@ -3321,17 +3388,17 @@
       <c r="P19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="R19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="S19" s="14" t="s">
+      <c r="Q19" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U19" s="8" t="s">
         <v>31</v>
@@ -3358,31 +3425,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="29">
-      <c r="A20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:28" ht="28.8">
+      <c r="A20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <v>50336</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>318</v>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7">
+        <v>136999</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>12</v>
@@ -3402,23 +3469,23 @@
       <c r="O20" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="P20" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>339</v>
+      <c r="P20" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>398</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="V20" s="8" t="s">
         <v>31</v>
@@ -3442,31 +3509,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="1:28" ht="28.8">
+      <c r="A21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2">
-        <v>24998</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>90</v>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7">
+        <v>103086</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>12</v>
@@ -3490,22 +3557,22 @@
         <v>31</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>409</v>
+        <v>288</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>31</v>
+        <v>317</v>
       </c>
       <c r="W21" s="8" t="s">
         <v>31</v>
@@ -3526,25 +3593,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="29">
-      <c r="A22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:28" ht="28.8">
+      <c r="A22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>136999</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>33</v>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7">
+        <v>80151</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>92</v>
+        <v>411</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>93</v>
@@ -3553,7 +3620,7 @@
         <v>14</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>31</v>
@@ -3568,34 +3635,34 @@
         <v>31</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q22" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="R22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="S22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="W22" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="T22" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="U22" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="V22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="W22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="X22" s="14" t="s">
-        <v>31</v>
+      <c r="X22" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>31</v>
@@ -3610,34 +3677,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="29">
-      <c r="A23" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:28" ht="43.2">
+      <c r="A23" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2">
-        <v>103086</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7">
+        <v>149810</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>321</v>
+      <c r="F23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>31</v>
@@ -3652,34 +3719,34 @@
         <v>31</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="P23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q23" s="10" t="s">
-        <v>288</v>
+      <c r="Q23" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="U23" s="8" t="s">
         <v>280</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="W23" s="8" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="X23" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="Y23" s="9" t="s">
         <v>31</v>
@@ -3694,28 +3761,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="29">
-      <c r="A24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="1:28" ht="28.8">
+      <c r="A24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
-        <v>80151</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>323</v>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7">
+        <v>120122</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>14</v>
@@ -3736,13 +3803,13 @@
         <v>31</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>31</v>
+        <v>397</v>
       </c>
       <c r="R24" s="8" t="s">
         <v>31</v>
@@ -3751,19 +3818,19 @@
         <v>31</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="U24" s="8" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>292</v>
+        <v>31</v>
       </c>
       <c r="W24" s="8" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="X24" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="Y24" s="9" t="s">
         <v>31</v>
@@ -3778,25 +3845,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="43.5">
-      <c r="A25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:28">
+      <c r="A25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
-        <v>149810</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7">
+        <v>105395</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>324</v>
+      <c r="F25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>99</v>
@@ -3820,13 +3887,13 @@
         <v>31</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="P25" s="8" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>31</v>
+        <v>396</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>31</v>
@@ -3835,19 +3902,19 @@
         <v>31</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="U25" s="8" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>287</v>
+        <v>31</v>
       </c>
       <c r="W25" s="8" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="X25" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="Y25" s="9" t="s">
         <v>31</v>
@@ -3862,34 +3929,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="29">
-      <c r="A26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="1:28" ht="28.8">
+      <c r="A26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
-        <v>120122</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>95</v>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7">
+        <v>35076</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>31</v>
@@ -3904,33 +3971,33 @@
         <v>31</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>293</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>407</v>
+        <v>283</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>31</v>
+        <v>315</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="U26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="V26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="W26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="X26" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="W26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X26" s="8" t="s">
         <v>31</v>
       </c>
       <c r="Y26" s="9" t="s">
@@ -3947,33 +4014,33 @@
       </c>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2">
-        <v>105395</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>103</v>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7">
+        <v>38021</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>31</v>
@@ -3988,13 +4055,13 @@
         <v>31</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="P27" s="8" t="s">
         <v>31</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>406</v>
+        <v>31</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>31</v>
@@ -4002,14 +4069,14 @@
       <c r="S27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T27" s="10" t="s">
-        <v>278</v>
+      <c r="T27" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="U27" s="8" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="V27" s="8" t="s">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="W27" s="8" t="s">
         <v>31</v>
@@ -4030,25 +4097,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="29">
-      <c r="A28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:28">
+      <c r="A28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2">
-        <v>35076</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>106</v>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7">
+        <v>64184</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>108</v>
@@ -4072,22 +4139,22 @@
         <v>31</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q28" s="18" t="s">
-        <v>283</v>
+        <v>272</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>319</v>
+        <v>31</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="U28" s="8" t="s">
         <v>31</v>
@@ -4114,34 +4181,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
-      <c r="A29" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="1:28" ht="28.8">
+      <c r="A29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <v>38021</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>48</v>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7">
+        <v>67177</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>31</v>
@@ -4156,28 +4223,28 @@
         <v>31</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="P29" s="8" t="s">
         <v>31</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>31</v>
+        <v>318</v>
       </c>
       <c r="R29" s="8" t="s">
         <v>31</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="U29" s="8" t="s">
         <v>280</v>
       </c>
       <c r="V29" s="8" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="W29" s="8" t="s">
         <v>31</v>
@@ -4198,34 +4265,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
-      <c r="A30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="30" spans="1:28" ht="28.8">
+      <c r="A30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
-        <v>64184</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>65</v>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7">
+        <v>104043</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>31</v>
@@ -4243,28 +4310,28 @@
         <v>272</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>31</v>
+        <v>320</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="T30" s="8" t="s">
         <v>273</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="W30" s="8" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="X30" s="8" t="s">
         <v>31</v>
@@ -4282,40 +4349,40 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="29">
-      <c r="A31" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="1:28" ht="28.8">
+      <c r="A31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
-        <v>67177</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7">
+        <v>50150</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>114</v>
+      <c r="F31" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>31</v>
@@ -4324,31 +4391,31 @@
         <v>31</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="P31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q31" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="R31" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="S31" s="14" t="s">
-        <v>298</v>
+      <c r="Q31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U31" s="8" t="s">
         <v>280</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="W31" s="8" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="X31" s="8" t="s">
         <v>31</v>
@@ -4366,25 +4433,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="29">
-      <c r="A32" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="32" spans="1:28" ht="43.2">
+      <c r="A32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <v>104043</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>118</v>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7">
+        <v>28724</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>120</v>
@@ -4410,14 +4477,14 @@
       <c r="O32" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="P32" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q32" s="10" t="s">
-        <v>327</v>
+      <c r="P32" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="S32" s="8" t="s">
         <v>298</v>
@@ -4429,61 +4496,61 @@
         <v>280</v>
       </c>
       <c r="V32" s="8" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="W32" s="8" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="X32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Y32" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="9" t="s">
+      <c r="Y32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="AA32" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB32" s="9" t="s">
+      <c r="AA32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="29">
-      <c r="A33" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="33" spans="1:28">
+      <c r="A33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2">
-        <v>50150</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>123</v>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7">
+        <v>38915</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>284</v>
+        <v>31</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>31</v>
@@ -4492,13 +4559,13 @@
         <v>31</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="P33" s="8" t="s">
         <v>31</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>31</v>
+        <v>394</v>
       </c>
       <c r="R33" s="8" t="s">
         <v>31</v>
@@ -4507,58 +4574,58 @@
         <v>31</v>
       </c>
       <c r="T33" s="8" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>328</v>
+        <v>31</v>
       </c>
       <c r="W33" s="8" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="X33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Y33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z33" s="9" t="s">
+      <c r="Y33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z33" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="AA33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB33" s="9" t="s">
+      <c r="AA33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB33" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="43.5">
-      <c r="A34" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="1:28" ht="43.2">
+      <c r="A34" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <v>28724</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7">
+        <v>45141</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>125</v>
+      <c r="F34" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>17</v>
@@ -4578,31 +4645,31 @@
       <c r="O34" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="P34" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q34" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="R34" s="10" t="s">
+      <c r="P34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="R34" s="8" t="s">
         <v>31</v>
       </c>
       <c r="S34" s="8" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="T34" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="U34" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="V34" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="W34" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="X34" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="U34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="W34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X34" s="8" t="s">
         <v>31</v>
       </c>
       <c r="Y34" s="8" t="s">
@@ -4612,40 +4679,40 @@
         <v>274</v>
       </c>
       <c r="AA34" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="AB34" s="8" t="s">
-        <v>31</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:28">
-      <c r="A35" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2">
-        <v>38915</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>128</v>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7">
+        <v>188985</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>31</v>
@@ -4666,7 +4733,7 @@
         <v>31</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="R35" s="8" t="s">
         <v>31</v>
@@ -4674,7 +4741,7 @@
       <c r="S35" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T35" s="10" t="s">
+      <c r="T35" s="8" t="s">
         <v>273</v>
       </c>
       <c r="U35" s="8" t="s">
@@ -4702,40 +4769,40 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="43.5">
-      <c r="A36" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    <row r="36" spans="1:28" ht="28.8">
+      <c r="A36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
-        <v>45141</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>95</v>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7">
+        <v>127326</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>31</v>
+        <v>392</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>31</v>
@@ -4744,13 +4811,13 @@
         <v>31</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="P36" s="8" t="s">
         <v>31</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>329</v>
+        <v>31</v>
       </c>
       <c r="R36" s="8" t="s">
         <v>31</v>
@@ -4759,16 +4826,16 @@
         <v>31</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U36" s="8" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="V36" s="8" t="s">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="W36" s="8" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="X36" s="8" t="s">
         <v>31</v>
@@ -4780,40 +4847,40 @@
         <v>274</v>
       </c>
       <c r="AA36" s="8" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="AB36" s="8" t="s">
-        <v>290</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
-      <c r="A37" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="37" spans="1:28" ht="28.8">
+      <c r="A37" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
-        <v>188985</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7">
+        <v>269763</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>133</v>
+      <c r="F37" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>31</v>
@@ -4831,10 +4898,10 @@
         <v>272</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="R37" s="8" t="s">
         <v>31</v>
@@ -4843,7 +4910,7 @@
         <v>31</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="U37" s="8" t="s">
         <v>31</v>
@@ -4870,28 +4937,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="29">
-      <c r="A38" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="38" spans="1:28" ht="43.2">
+      <c r="A38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2">
-        <v>127326</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>138</v>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7">
+        <v>34567</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>14</v>
@@ -4902,14 +4969,14 @@
       <c r="K38" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="L38" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="M38" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N38" s="14" t="s">
-        <v>31</v>
+      <c r="L38" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>31</v>
@@ -4933,10 +5000,10 @@
         <v>280</v>
       </c>
       <c r="V38" s="8" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="W38" s="8" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="X38" s="8" t="s">
         <v>31</v>
@@ -4954,31 +5021,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="29">
-      <c r="A39" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="39" spans="1:28" ht="43.2">
+      <c r="A39" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2">
-        <v>269763</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>98</v>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7">
+        <v>68770</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>141</v>
+        <v>413</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>17</v>
@@ -4999,10 +5066,10 @@
         <v>272</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="R39" s="8" t="s">
         <v>31</v>
@@ -5011,25 +5078,25 @@
         <v>31</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="U39" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="V39" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="W39" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="X39" s="14" t="s">
-        <v>31</v>
+        <v>273</v>
+      </c>
+      <c r="U39" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="W39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X39" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="Y39" s="8" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="Z39" s="8" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="AA39" s="8" t="s">
         <v>31</v>
@@ -5038,28 +5105,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="43.5">
-      <c r="A40" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="2" t="s">
+    <row r="40" spans="1:28" ht="43.2">
+      <c r="A40" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2">
-        <v>34567</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7">
+        <v>45701</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>143</v>
+      <c r="F40" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>14</v>
@@ -5067,164 +5134,164 @@
       <c r="J40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U40" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="V40" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="W40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="X40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z40" s="8" t="s">
+      <c r="K40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="R40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="U40" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="V40" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="W40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z40" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="AA40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB40" s="8" t="s">
+      <c r="AA40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB40" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="43.5">
-      <c r="A41" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="2" t="s">
+    <row r="41" spans="1:28" ht="28.8">
+      <c r="A41" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2">
-        <v>68770</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>331</v>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7">
+        <v>43343</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q41" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="R41" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="S41" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T41" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="U41" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="V41" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="W41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="X41" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y41" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z41" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="S41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="U41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z41" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB41" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="43.5">
-      <c r="A42" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B42" s="2" t="s">
+    <row r="42" spans="1:28" ht="28.8">
+      <c r="A42" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2">
-        <v>45701</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7">
+        <v>45439</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>149</v>
+      <c r="F42" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>151</v>
@@ -5251,28 +5318,28 @@
         <v>272</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>31</v>
+        <v>327</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="T42" s="9" t="s">
         <v>273</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V42" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="W42" s="9" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="X42" s="9" t="s">
         <v>31</v>
@@ -5290,31 +5357,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="29">
-      <c r="A43" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" s="2" t="s">
+    <row r="43" spans="1:28" ht="28.8">
+      <c r="A43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2">
-        <v>43343</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>78</v>
+      <c r="C43" s="7">
+        <v>291</v>
+      </c>
+      <c r="D43" s="7">
+        <v>56950</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>12</v>
@@ -5334,20 +5403,20 @@
       <c r="O43" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="P43" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q43" s="11" t="s">
-        <v>334</v>
+      <c r="P43" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q43" s="9" t="s">
+        <v>329</v>
       </c>
       <c r="R43" s="9" t="s">
         <v>272</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="U43" s="9" t="s">
         <v>31</v>
@@ -5374,31 +5443,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="29">
-      <c r="A44" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B44" s="2" t="s">
+    <row r="44" spans="1:28">
+      <c r="A44" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2">
-        <v>45439</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7">
+        <v>10562</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>155</v>
+      <c r="F44" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>12</v>
@@ -5418,14 +5487,14 @@
       <c r="O44" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="P44" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q44" s="11" t="s">
-        <v>335</v>
+      <c r="P44" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>330</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="S44" s="9" t="s">
         <v>298</v>
@@ -5434,13 +5503,13 @@
         <v>273</v>
       </c>
       <c r="U44" s="9" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="V44" s="9" t="s">
-        <v>336</v>
+        <v>31</v>
       </c>
       <c r="W44" s="9" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="X44" s="9" t="s">
         <v>31</v>
@@ -5458,27 +5527,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="29">
-      <c r="A45" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" s="2" t="s">
+    <row r="45" spans="1:28">
+      <c r="A45" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="2">
-        <v>291</v>
-      </c>
-      <c r="D45" s="2">
-        <v>56950</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>149</v>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7">
+        <v>10455</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>159</v>
@@ -5504,17 +5571,17 @@
       <c r="O45" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="P45" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>337</v>
+      <c r="P45" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="T45" s="9" t="s">
         <v>273</v>
@@ -5544,31 +5611,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
-      <c r="A46" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B46" s="2" t="s">
+    <row r="46" spans="1:28" ht="28.8">
+      <c r="A46" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2">
-        <v>10562</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7">
+        <v>25038</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>161</v>
+      <c r="F46" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>12</v>
@@ -5588,14 +5655,14 @@
       <c r="O46" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="P46" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q46" s="11" t="s">
-        <v>338</v>
+      <c r="P46" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="S46" s="9" t="s">
         <v>298</v>
@@ -5628,31 +5695,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
-      <c r="A47" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="1:28" ht="72">
+      <c r="A47" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2">
-        <v>10455</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>161</v>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7">
+        <v>76669</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>12</v>
@@ -5673,28 +5740,28 @@
         <v>272</v>
       </c>
       <c r="P47" s="9" t="s">
-        <v>31</v>
+        <v>333</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="R47" s="9" t="s">
         <v>31</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>31</v>
+        <v>315</v>
       </c>
       <c r="T47" s="9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="U47" s="9" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="V47" s="9" t="s">
-        <v>31</v>
+        <v>335</v>
       </c>
       <c r="W47" s="9" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="X47" s="9" t="s">
         <v>31</v>
@@ -5712,34 +5779,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="29">
-      <c r="A48" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="48" spans="1:28" ht="28.8">
+      <c r="A48" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2">
-        <v>25038</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>166</v>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7">
+        <v>73698</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K48" s="9" t="s">
         <v>31</v>
@@ -5757,19 +5824,19 @@
         <v>272</v>
       </c>
       <c r="P48" s="9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="R48" s="9" t="s">
         <v>272</v>
       </c>
       <c r="S48" s="9" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="T48" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>31</v>
@@ -5796,34 +5863,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="72.5">
-      <c r="A49" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B49" s="2" t="s">
+    <row r="49" spans="1:28">
+      <c r="A49" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2">
-        <v>76669</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7">
+        <v>57948</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>125</v>
+      <c r="F49" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K49" s="9" t="s">
         <v>31</v>
@@ -5841,28 +5908,28 @@
         <v>272</v>
       </c>
       <c r="P49" s="9" t="s">
-        <v>341</v>
+        <v>31</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="R49" s="9" t="s">
         <v>31</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>319</v>
+        <v>31</v>
       </c>
       <c r="T49" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="U49" s="9" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="V49" s="9" t="s">
-        <v>343</v>
+        <v>31</v>
       </c>
       <c r="W49" s="9" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="X49" s="9" t="s">
         <v>31</v>
@@ -5880,28 +5947,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="29">
-      <c r="A50" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B50" s="2" t="s">
+    <row r="50" spans="1:28" ht="28.8">
+      <c r="A50" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2">
-        <v>73698</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7">
+        <v>70236</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>37</v>
+      <c r="F50" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>14</v>
@@ -5925,15 +5992,15 @@
         <v>272</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>344</v>
+        <v>31</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="R50" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="S50" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="R50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S50" s="9" t="s">
         <v>31</v>
       </c>
       <c r="T50" s="9" t="s">
@@ -5965,27 +6032,27 @@
       </c>
     </row>
     <row r="51" spans="1:28">
-      <c r="A51" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A51" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2">
-        <v>57948</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>175</v>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7">
+        <v>123735</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>14</v>
@@ -6005,14 +6072,14 @@
       <c r="N51" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="9" t="s">
         <v>272</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q51" s="11" t="s">
-        <v>397</v>
+        <v>337</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="R51" s="9" t="s">
         <v>31</v>
@@ -6020,8 +6087,8 @@
       <c r="S51" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T51" s="11" t="s">
-        <v>278</v>
+      <c r="T51" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="U51" s="9" t="s">
         <v>31</v>
@@ -6048,25 +6115,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="29">
-      <c r="A52" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" s="2" t="s">
+    <row r="52" spans="1:28">
+      <c r="A52" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2">
-        <v>70236</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>98</v>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7">
+        <v>101840</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>179</v>
@@ -6075,7 +6142,7 @@
         <v>14</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K52" s="9" t="s">
         <v>31</v>
@@ -6090,13 +6157,13 @@
         <v>31</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="P52" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q52" s="9" t="s">
-        <v>396</v>
+        <v>31</v>
       </c>
       <c r="R52" s="9" t="s">
         <v>31</v>
@@ -6105,13 +6172,13 @@
         <v>31</v>
       </c>
       <c r="T52" s="9" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="U52" s="9" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="V52" s="9" t="s">
-        <v>31</v>
+        <v>338</v>
       </c>
       <c r="W52" s="9" t="s">
         <v>31</v>
@@ -6133,27 +6200,27 @@
       </c>
     </row>
     <row r="53" spans="1:28">
-      <c r="A53" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="A53" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2">
-        <v>123735</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7">
+        <v>111187</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>161</v>
+      <c r="F53" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>14</v>
@@ -6173,23 +6240,23 @@
       <c r="N53" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O53" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="P53" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q53" s="11" t="s">
-        <v>345</v>
+      <c r="O53" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>385</v>
       </c>
       <c r="R53" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="S53" s="9" t="s">
         <v>31</v>
       </c>
       <c r="T53" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="U53" s="9" t="s">
         <v>31</v>
@@ -6217,33 +6284,33 @@
       </c>
     </row>
     <row r="54" spans="1:28">
-      <c r="A54" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2">
-        <v>101840</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>183</v>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7">
+        <v>77338</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K54" s="9" t="s">
         <v>31</v>
@@ -6279,10 +6346,10 @@
         <v>280</v>
       </c>
       <c r="V54" s="9" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="W54" s="9" t="s">
-        <v>31</v>
+        <v>315</v>
       </c>
       <c r="X54" s="9" t="s">
         <v>31</v>
@@ -6301,27 +6368,27 @@
       </c>
     </row>
     <row r="55" spans="1:28">
-      <c r="A55" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="A55" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2">
-        <v>111187</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>185</v>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7">
+        <v>78132</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>14</v>
@@ -6345,16 +6412,16 @@
         <v>272</v>
       </c>
       <c r="P55" s="9" t="s">
-        <v>31</v>
+        <v>340</v>
       </c>
       <c r="Q55" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="R55" s="11" t="s">
-        <v>272</v>
+        <v>384</v>
+      </c>
+      <c r="R55" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="S55" s="9" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="T55" s="9" t="s">
         <v>278</v>
@@ -6384,28 +6451,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
-      <c r="A56" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B56" s="2" t="s">
+    <row r="56" spans="1:28" ht="28.8">
+      <c r="A56" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2">
-        <v>77338</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7">
+        <v>60935</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>14</v>
@@ -6426,31 +6493,31 @@
         <v>31</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>31</v>
+        <v>341</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>31</v>
+        <v>341</v>
       </c>
       <c r="R56" s="9" t="s">
         <v>31</v>
       </c>
       <c r="S56" s="9" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="T56" s="9" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="U56" s="9" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="V56" s="9" t="s">
-        <v>347</v>
+        <v>31</v>
       </c>
       <c r="W56" s="9" t="s">
-        <v>319</v>
+        <v>31</v>
       </c>
       <c r="X56" s="9" t="s">
         <v>31</v>
@@ -6468,34 +6535,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
-      <c r="A57" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B57" s="2" t="s">
+    <row r="57" spans="1:28" ht="28.8">
+      <c r="A57" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2">
-        <v>78132</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7">
+        <v>54730</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>149</v>
+      <c r="F57" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K57" s="9" t="s">
         <v>31</v>
@@ -6510,34 +6577,34 @@
         <v>31</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>348</v>
+        <v>31</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>394</v>
+        <v>31</v>
       </c>
       <c r="R57" s="9" t="s">
         <v>31</v>
       </c>
       <c r="S57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U57" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="V57" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="W57" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="T57" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="U57" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="V57" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W57" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="X57" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="Y57" s="9" t="s">
         <v>31</v>
@@ -6552,64 +6619,64 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="29">
-      <c r="A58" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B58" s="2" t="s">
+    <row r="58" spans="1:28" ht="28.8">
+      <c r="A58" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2">
-        <v>60935</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>37</v>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7">
+        <v>115269</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>31</v>
+        <v>383</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="P58" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q58" s="11" t="s">
-        <v>349</v>
+        <v>31</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q58" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="R58" s="9" t="s">
         <v>31</v>
       </c>
       <c r="S58" s="9" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="T58" s="9" t="s">
-        <v>273</v>
+        <v>31</v>
       </c>
       <c r="U58" s="9" t="s">
         <v>31</v>
@@ -6636,31 +6703,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="29">
-      <c r="A59" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B59" s="2" t="s">
+    <row r="59" spans="1:28" ht="28.8">
+      <c r="A59" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2">
-        <v>54730</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7">
+        <v>53382</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>196</v>
+      <c r="F59" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J59" s="8" t="s">
         <v>12</v>
@@ -6678,13 +6745,13 @@
         <v>31</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="P59" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>31</v>
+        <v>382</v>
       </c>
       <c r="R59" s="9" t="s">
         <v>31</v>
@@ -6693,19 +6760,19 @@
         <v>31</v>
       </c>
       <c r="T59" s="9" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="U59" s="9" t="s">
         <v>280</v>
       </c>
       <c r="V59" s="9" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="W59" s="9" t="s">
         <v>298</v>
       </c>
       <c r="X59" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="Y59" s="9" t="s">
         <v>31</v>
@@ -6720,25 +6787,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="29">
-      <c r="A60" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B60" s="2" t="s">
+    <row r="60" spans="1:28" ht="43.2">
+      <c r="A60" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2">
-        <v>115269</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>200</v>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7">
+        <v>50561</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>201</v>
@@ -6750,40 +6817,40 @@
         <v>12</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="L60" s="11" t="s">
-        <v>393</v>
+        <v>31</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="N60" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="P60" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q60" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="R60" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="S60" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="O60" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P60" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q60" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="R60" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S60" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="T60" s="9" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="U60" s="9" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="V60" s="9" t="s">
-        <v>31</v>
+        <v>345</v>
       </c>
       <c r="W60" s="9" t="s">
         <v>31</v>
@@ -6804,34 +6871,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="29">
-      <c r="A61" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B61" s="2" t="s">
+    <row r="61" spans="1:28" ht="28.8">
+      <c r="A61" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2">
-        <v>53382</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7">
+        <v>61779</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>86</v>
+      <c r="F61" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K61" s="9" t="s">
         <v>31</v>
@@ -6849,28 +6916,28 @@
         <v>272</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>31</v>
+        <v>346</v>
       </c>
       <c r="Q61" s="9" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="R61" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="S61" s="9" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="T61" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="U61" s="9" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="V61" s="9" t="s">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="W61" s="9" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="X61" s="9" t="s">
         <v>31</v>
@@ -6888,28 +6955,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="43.5">
-      <c r="A62" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B62" s="2" t="s">
+    <row r="62" spans="1:28" ht="57.6">
+      <c r="A62" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2">
-        <v>50561</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>205</v>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7">
+        <v>173240</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="I62" s="8" t="s">
         <v>14</v>
@@ -6932,17 +6999,17 @@
       <c r="O62" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="P62" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q62" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="R62" s="11" t="s">
-        <v>272</v>
+      <c r="P62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q62" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="R62" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="S62" s="9" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="T62" s="9" t="s">
         <v>278</v>
@@ -6951,13 +7018,13 @@
         <v>280</v>
       </c>
       <c r="V62" s="9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="W62" s="9" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="X62" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="Y62" s="9" t="s">
         <v>31</v>
@@ -6972,31 +7039,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="29">
-      <c r="A63" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B63" s="2" t="s">
+    <row r="63" spans="1:28" ht="43.2">
+      <c r="A63" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2">
-        <v>61779</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7">
+        <v>85847</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>72</v>
+      <c r="F63" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>17</v>
@@ -7016,14 +7083,14 @@
       <c r="O63" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="P63" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q63" s="11" t="s">
-        <v>354</v>
+      <c r="P63" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q63" s="9" t="s">
+        <v>380</v>
       </c>
       <c r="R63" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="S63" s="9" t="s">
         <v>298</v>
@@ -7056,34 +7123,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="58">
-      <c r="A64" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B64" s="2" t="s">
+    <row r="64" spans="1:28" ht="28.8">
+      <c r="A64" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2">
-        <v>173240</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>137</v>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7">
+        <v>38584</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K64" s="9" t="s">
         <v>31</v>
@@ -7101,10 +7168,10 @@
         <v>272</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="R64" s="9" t="s">
         <v>31</v>
@@ -7116,16 +7183,16 @@
         <v>278</v>
       </c>
       <c r="U64" s="9" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="V64" s="9" t="s">
-        <v>355</v>
+        <v>31</v>
       </c>
       <c r="W64" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="X64" s="11" t="s">
-        <v>272</v>
+        <v>31</v>
+      </c>
+      <c r="X64" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="Y64" s="9" t="s">
         <v>31</v>
@@ -7140,34 +7207,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="43.5">
-      <c r="A65" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B65" s="2" t="s">
+    <row r="65" spans="1:28" ht="28.8">
+      <c r="A65" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2">
-        <v>85847</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7">
+        <v>56517</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>118</v>
+      <c r="F65" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K65" s="9" t="s">
         <v>31</v>
@@ -7185,10 +7252,10 @@
         <v>272</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="R65" s="9" t="s">
         <v>31</v>
@@ -7224,34 +7291,36 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="29">
-      <c r="A66" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B66" s="2" t="s">
+    <row r="66" spans="1:28" ht="28.8">
+      <c r="A66" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2">
-        <v>38584</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>216</v>
+      <c r="C66" s="7">
+        <v>322</v>
+      </c>
+      <c r="D66" s="7">
+        <v>53880</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K66" s="9" t="s">
         <v>31</v>
@@ -7269,28 +7338,28 @@
         <v>272</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="R66" s="9" t="s">
         <v>31</v>
       </c>
       <c r="S66" s="9" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="T66" s="9" t="s">
         <v>278</v>
       </c>
       <c r="U66" s="9" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="V66" s="9" t="s">
-        <v>31</v>
+        <v>352</v>
       </c>
       <c r="W66" s="9" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="X66" s="9" t="s">
         <v>31</v>
@@ -7308,34 +7377,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="29">
-      <c r="A67" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B67" s="2" t="s">
+    <row r="67" spans="1:28" ht="43.2">
+      <c r="A67" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2">
-        <v>56517</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>137</v>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7">
+        <v>36880</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K67" s="9" t="s">
         <v>31</v>
@@ -7353,16 +7422,16 @@
         <v>272</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="R67" s="9" t="s">
         <v>31</v>
       </c>
       <c r="S67" s="9" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="T67" s="9" t="s">
         <v>273</v>
@@ -7392,75 +7461,73 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="29">
-      <c r="A68" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B68" s="2" t="s">
+    <row r="68" spans="1:28" ht="28.8">
+      <c r="A68" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="2">
-        <v>322</v>
-      </c>
-      <c r="D68" s="2">
-        <v>53880</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>222</v>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7">
+        <v>181506</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>31</v>
+        <v>354</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="O68" s="9" t="s">
         <v>272</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>359</v>
+        <v>31</v>
       </c>
       <c r="Q68" s="9" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="R68" s="9" t="s">
         <v>31</v>
       </c>
       <c r="S68" s="9" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="T68" s="9" t="s">
         <v>278</v>
       </c>
       <c r="U68" s="9" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="V68" s="9" t="s">
-        <v>360</v>
+        <v>31</v>
       </c>
       <c r="W68" s="9" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="X68" s="9" t="s">
         <v>31</v>
@@ -7478,28 +7545,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="43.5">
-      <c r="A69" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B69" s="2" t="s">
+    <row r="69" spans="1:28">
+      <c r="A69" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2">
-        <v>36880</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>19</v>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7">
+        <v>101840</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>16</v>
@@ -7523,10 +7590,10 @@
         <v>272</v>
       </c>
       <c r="P69" s="9" t="s">
-        <v>361</v>
+        <v>31</v>
       </c>
       <c r="Q69" s="9" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="R69" s="9" t="s">
         <v>31</v>
@@ -7562,76 +7629,76 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="29">
-      <c r="A70" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B70" s="2" t="s">
+    <row r="70" spans="1:28" ht="28.8">
+      <c r="A70" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2">
-        <v>181506</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>228</v>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7">
+        <v>88165</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J70" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="M70" s="11" t="s">
-        <v>272</v>
+        <v>31</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="N70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U70" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="V70" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="W70" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="O70" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="P70" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q70" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="R70" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S70" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T70" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="U70" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="V70" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W70" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="X70" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="Y70" s="9" t="s">
         <v>31</v>
@@ -7646,25 +7713,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
-      <c r="A71" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B71" s="2" t="s">
+    <row r="71" spans="1:28" ht="57.6">
+      <c r="A71" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2">
-        <v>101840</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>232</v>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7">
+        <v>89027</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>234</v>
@@ -7676,10 +7743,10 @@
         <v>17</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>31</v>
+        <v>375</v>
       </c>
       <c r="M71" s="9" t="s">
         <v>31</v>
@@ -7691,31 +7758,31 @@
         <v>272</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>31</v>
+        <v>355</v>
       </c>
       <c r="Q71" s="9" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="R71" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="S71" s="9" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="T71" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="U71" s="9" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="V71" s="9" t="s">
-        <v>31</v>
+        <v>356</v>
       </c>
       <c r="W71" s="9" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="X71" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="Y71" s="9" t="s">
         <v>31</v>
@@ -7730,34 +7797,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="29">
-      <c r="A72" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B72" s="2" t="s">
+    <row r="72" spans="1:28">
+      <c r="A72" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2">
-        <v>88165</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>137</v>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7">
+        <v>15058</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K72" s="9" t="s">
         <v>31</v>
@@ -7772,13 +7839,13 @@
         <v>31</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="P72" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q72" s="9" t="s">
-        <v>31</v>
+        <v>374</v>
       </c>
       <c r="R72" s="9" t="s">
         <v>31</v>
@@ -7787,19 +7854,19 @@
         <v>31</v>
       </c>
       <c r="T72" s="9" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="U72" s="9" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="V72" s="9" t="s">
-        <v>294</v>
+        <v>31</v>
       </c>
       <c r="W72" s="9" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="X72" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="Y72" s="9" t="s">
         <v>31</v>
@@ -7814,40 +7881,40 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="58">
-      <c r="A73" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B73" s="2" t="s">
+    <row r="73" spans="1:28">
+      <c r="A73" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2">
-        <v>89027</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7">
+        <v>65549</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>239</v>
+      <c r="F73" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>385</v>
+        <v>31</v>
       </c>
       <c r="M73" s="9" t="s">
         <v>31</v>
@@ -7858,32 +7925,32 @@
       <c r="O73" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="P73" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q73" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="R73" s="11" t="s">
-        <v>272</v>
+      <c r="P73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q73" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="R73" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="S73" s="9" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="T73" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="U73" s="9" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="V73" s="9" t="s">
-        <v>364</v>
+        <v>31</v>
       </c>
       <c r="W73" s="9" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="X73" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="Y73" s="9" t="s">
         <v>31</v>
@@ -7898,28 +7965,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
-      <c r="A74" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B74" s="2" t="s">
+    <row r="74" spans="1:28" ht="28.8">
+      <c r="A74" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2">
-        <v>15058</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>75</v>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7">
+        <v>52092</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="I74" s="8" t="s">
         <v>16</v>
@@ -7928,25 +7995,25 @@
         <v>12</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>31</v>
+        <v>357</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="P74" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>384</v>
+        <v>31</v>
       </c>
       <c r="R74" s="9" t="s">
         <v>31</v>
@@ -7955,7 +8022,7 @@
         <v>31</v>
       </c>
       <c r="T74" s="9" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="U74" s="9" t="s">
         <v>31</v>
@@ -7982,28 +8049,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
-      <c r="A75" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B75" s="2" t="s">
+    <row r="75" spans="1:28" ht="28.8">
+      <c r="A75" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2">
-        <v>65549</v>
-      </c>
-      <c r="E75" s="2" t="s">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7">
+        <v>52128</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>244</v>
+      <c r="F75" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>16</v>
@@ -8012,25 +8079,25 @@
         <v>12</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>31</v>
+        <v>357</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="P75" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>383</v>
+        <v>31</v>
       </c>
       <c r="R75" s="9" t="s">
         <v>31</v>
@@ -8039,7 +8106,7 @@
         <v>31</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>273</v>
+        <v>31</v>
       </c>
       <c r="U75" s="9" t="s">
         <v>31</v>
@@ -8066,25 +8133,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="29">
-      <c r="A76" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B76" s="2" t="s">
+    <row r="76" spans="1:28" ht="28.8">
+      <c r="A76" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2">
-        <v>52092</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>98</v>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7">
+        <v>49150</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>249</v>
@@ -8096,46 +8163,46 @@
         <v>12</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>365</v>
+        <v>31</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="N76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O76" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="P76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q76" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="R76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T76" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="U76" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="V76" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="W76" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="O76" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P76" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q76" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="R76" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S76" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T76" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="U76" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="V76" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W76" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="X76" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="Y76" s="9" t="s">
         <v>31</v>
@@ -8150,76 +8217,76 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="29">
-      <c r="A77" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B77" s="2" t="s">
+    <row r="77" spans="1:28" ht="57.6">
+      <c r="A77" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2">
-        <v>52128</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>216</v>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7">
+        <v>124725</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>365</v>
+        <v>31</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="P77" s="9" t="s">
-        <v>31</v>
+        <v>359</v>
       </c>
       <c r="Q77" s="9" t="s">
-        <v>31</v>
+        <v>359</v>
       </c>
       <c r="R77" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="S77" s="9" t="s">
-        <v>31</v>
+        <v>315</v>
       </c>
       <c r="T77" s="9" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="U77" s="9" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="V77" s="9" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="W77" s="9" t="s">
         <v>31</v>
       </c>
       <c r="X77" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="Y77" s="9" t="s">
         <v>31</v>
@@ -8234,34 +8301,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="29">
-      <c r="A78" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B78" s="2" t="s">
+    <row r="78" spans="1:28" ht="43.2">
+      <c r="A78" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2">
-        <v>49150</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>161</v>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7">
+        <v>55614</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K78" s="9" t="s">
         <v>31</v>
@@ -8282,7 +8349,7 @@
         <v>31</v>
       </c>
       <c r="Q78" s="9" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="R78" s="9" t="s">
         <v>31</v>
@@ -8297,12 +8364,12 @@
         <v>280</v>
       </c>
       <c r="V78" s="9" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="W78" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="X78" s="11" t="s">
+      <c r="X78" s="9" t="s">
         <v>272</v>
       </c>
       <c r="Y78" s="9" t="s">
@@ -8318,28 +8385,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="58">
-      <c r="A79" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B79" s="2" t="s">
+    <row r="79" spans="1:28" ht="43.2">
+      <c r="A79" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2">
-        <v>124725</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>161</v>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7">
+        <v>23489</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>14</v>
@@ -8348,10 +8415,10 @@
         <v>17</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>31</v>
+        <v>361</v>
       </c>
       <c r="M79" s="9" t="s">
         <v>31</v>
@@ -8360,31 +8427,31 @@
         <v>31</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="P79" s="9" t="s">
-        <v>368</v>
+        <v>31</v>
       </c>
       <c r="Q79" s="9" t="s">
-        <v>368</v>
+        <v>31</v>
       </c>
       <c r="R79" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="S79" s="9" t="s">
-        <v>319</v>
+        <v>31</v>
       </c>
       <c r="T79" s="9" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="U79" s="9" t="s">
         <v>280</v>
       </c>
       <c r="V79" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="W79" s="19" t="s">
-        <v>31</v>
+        <v>362</v>
+      </c>
+      <c r="W79" s="9" t="s">
+        <v>315</v>
       </c>
       <c r="X79" s="9" t="s">
         <v>272</v>
@@ -8402,28 +8469,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="43.5">
-      <c r="A80" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B80" s="2" t="s">
+    <row r="80" spans="1:28" ht="72">
+      <c r="A80" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2">
-        <v>55614</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7">
+        <v>58842</v>
+      </c>
+      <c r="E80" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>258</v>
+      <c r="F80" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>14</v>
@@ -8447,10 +8514,10 @@
         <v>272</v>
       </c>
       <c r="P80" s="9" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="R80" s="9" t="s">
         <v>31</v>
@@ -8459,25 +8526,25 @@
         <v>31</v>
       </c>
       <c r="T80" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="U80" s="9" t="s">
         <v>280</v>
       </c>
       <c r="V80" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="W80" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="X80" s="11" t="s">
+      <c r="X80" s="9" t="s">
         <v>272</v>
       </c>
       <c r="Y80" s="9" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="Z80" s="9" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="AA80" s="9" t="s">
         <v>31</v>
@@ -8486,40 +8553,40 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="43.5">
-      <c r="A81" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B81" s="2" t="s">
+    <row r="81" spans="1:28">
+      <c r="A81" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2">
-        <v>23489</v>
-      </c>
-      <c r="E81" s="2" t="s">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7">
+        <v>41108</v>
+      </c>
+      <c r="E81" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>261</v>
+      <c r="F81" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>370</v>
+        <v>31</v>
       </c>
       <c r="M81" s="9" t="s">
         <v>31</v>
@@ -8549,13 +8616,13 @@
         <v>280</v>
       </c>
       <c r="V81" s="9" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="W81" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="X81" s="11" t="s">
-        <v>272</v>
+        <v>298</v>
+      </c>
+      <c r="X81" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="Y81" s="9" t="s">
         <v>31</v>
@@ -8570,28 +8637,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="72.5">
-      <c r="A82" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B82" s="2" t="s">
+    <row r="82" spans="1:28" ht="28.8">
+      <c r="A82" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2">
-        <v>58842</v>
-      </c>
-      <c r="E82" s="2" t="s">
+      <c r="C82" s="7"/>
+      <c r="D82" s="7">
+        <v>59882</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>265</v>
+      <c r="F82" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>14</v>
@@ -8612,13 +8679,13 @@
         <v>31</v>
       </c>
       <c r="O82" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="P82" s="19" t="s">
-        <v>293</v>
+        <v>31</v>
+      </c>
+      <c r="P82" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="R82" s="9" t="s">
         <v>31</v>
@@ -8626,14 +8693,14 @@
       <c r="S82" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T82" s="19" t="s">
-        <v>273</v>
+      <c r="T82" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="U82" s="9" t="s">
         <v>280</v>
       </c>
       <c r="V82" s="9" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="W82" s="9" t="s">
         <v>298</v>
@@ -8642,189 +8709,21 @@
         <v>272</v>
       </c>
       <c r="Y82" s="9" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="Z82" s="9" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="AA82" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AB82" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28">
-      <c r="A83" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2">
-        <v>41108</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="R83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="U83" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="V83" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="W83" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="X83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z83" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB83" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" ht="29">
-      <c r="A84" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2">
-        <v>59882</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K84" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L84" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M84" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N84" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O84" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P84" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q84" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="R84" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S84" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T84" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="U84" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="V84" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="W84" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="X84" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y84" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z84" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA84" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB84" s="9" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576 X1:Y1048576 R1:R1048576 AA1:AA1048576 M1:M1048576 K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576 M1:M1048576 AA1:AA1048576 R1:R1048576 X1:Y1048576 O1:O1048576">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
@@ -8836,92 +8735,92 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z1048576">
       <formula1>"interpunc,word,mixed,none"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576 W1:W1048576 S1:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576 W1:W1048576 N1:N1048576">
       <formula1>"def,indef,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://distantreading.github.io/ELTeC/fra/FRA00101.html"/>
-    <hyperlink ref="A5" r:id="rId2" display="https://distantreading.github.io/ELTeC/fra/FRA00102.html"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://distantreading.github.io/ELTeC/fra/FRA00201.html"/>
-    <hyperlink ref="A7" r:id="rId4" display="https://distantreading.github.io/ELTeC/fra/FRA00301.html"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://distantreading.github.io/ELTeC/fra/FRA00302.html"/>
-    <hyperlink ref="A9" r:id="rId6" display="https://distantreading.github.io/ELTeC/fra/FRA00401.html"/>
-    <hyperlink ref="A10" r:id="rId7" display="https://distantreading.github.io/ELTeC/fra/FRA00501.html"/>
-    <hyperlink ref="A11" r:id="rId8" display="https://distantreading.github.io/ELTeC/fra/FRA00502.html"/>
-    <hyperlink ref="A12" r:id="rId9" display="https://distantreading.github.io/ELTeC/fra/FRA00503.html"/>
-    <hyperlink ref="A13" r:id="rId10" display="https://distantreading.github.io/ELTeC/fra/FRA00601.html"/>
-    <hyperlink ref="A14" r:id="rId11" display="https://distantreading.github.io/ELTeC/fra/FRA00602.html"/>
-    <hyperlink ref="A15" r:id="rId12" display="https://distantreading.github.io/ELTeC/fra/FRA00701.html"/>
-    <hyperlink ref="A16" r:id="rId13" display="https://distantreading.github.io/ELTeC/fra/FRA00802.html"/>
-    <hyperlink ref="A17" r:id="rId14" display="https://distantreading.github.io/ELTeC/fra/FRA00901.html"/>
-    <hyperlink ref="A18" r:id="rId15" display="https://distantreading.github.io/ELTeC/fra/FRA00903.html"/>
-    <hyperlink ref="A19" r:id="rId16" display="https://distantreading.github.io/ELTeC/fra/FRA01001.html"/>
-    <hyperlink ref="A20" r:id="rId17" display="https://distantreading.github.io/ELTeC/fra/FRA01101.html"/>
-    <hyperlink ref="A21" r:id="rId18" display="https://distantreading.github.io/ELTeC/fra/FRA01102.html"/>
-    <hyperlink ref="A22" r:id="rId19" display="https://distantreading.github.io/ELTeC/fra/FRA01201.html"/>
-    <hyperlink ref="A23" r:id="rId20" display="https://distantreading.github.io/ELTeC/fra/FRA01202.html"/>
-    <hyperlink ref="A24" r:id="rId21" display="https://distantreading.github.io/ELTeC/fra/FRA01203.html"/>
-    <hyperlink ref="A25" r:id="rId22" display="https://distantreading.github.io/ELTeC/fra/FRA01301.html"/>
-    <hyperlink ref="A26" r:id="rId23" display="https://distantreading.github.io/ELTeC/fra/FRA01302.html"/>
-    <hyperlink ref="A27" r:id="rId24" display="https://distantreading.github.io/ELTeC/fra/FRA01303.html"/>
-    <hyperlink ref="A28" r:id="rId25" display="https://distantreading.github.io/ELTeC/fra/FRA01401.html"/>
-    <hyperlink ref="A29" r:id="rId26" display="https://distantreading.github.io/ELTeC/fra/FRA01402.html"/>
-    <hyperlink ref="A30" r:id="rId27" display="https://distantreading.github.io/ELTeC/fra/FRA01403.html"/>
-    <hyperlink ref="A31" r:id="rId28" display="https://distantreading.github.io/ELTeC/fra/FRA01501.html"/>
-    <hyperlink ref="A32" r:id="rId29" display="https://distantreading.github.io/ELTeC/fra/FRA01601.html"/>
-    <hyperlink ref="A33" r:id="rId30" display="https://distantreading.github.io/ELTeC/fra/FRA01602.html"/>
-    <hyperlink ref="A34" r:id="rId31" display="https://distantreading.github.io/ELTeC/fra/FRA01603.html"/>
-    <hyperlink ref="A35" r:id="rId32" display="https://distantreading.github.io/ELTeC/fra/FRA01701.html"/>
-    <hyperlink ref="A36" r:id="rId33" display="https://distantreading.github.io/ELTeC/fra/FRA01702.html"/>
-    <hyperlink ref="A37" r:id="rId34" display="https://distantreading.github.io/ELTeC/fra/FRA01801.html"/>
-    <hyperlink ref="A38" r:id="rId35" display="https://distantreading.github.io/ELTeC/fra/FRA01901.html"/>
-    <hyperlink ref="A39" r:id="rId36" display="https://distantreading.github.io/ELTeC/fra/FRA01902.html"/>
-    <hyperlink ref="A40" r:id="rId37" display="https://distantreading.github.io/ELTeC/fra/FRA02001.html"/>
-    <hyperlink ref="A41" r:id="rId38" display="https://distantreading.github.io/ELTeC/fra/FRA02101.html"/>
-    <hyperlink ref="A42" r:id="rId39" display="https://distantreading.github.io/ELTeC/fra/FRA02201.html"/>
-    <hyperlink ref="A43" r:id="rId40" display="https://distantreading.github.io/ELTeC/fra/FRA02202.html"/>
-    <hyperlink ref="A44" r:id="rId41" display="https://distantreading.github.io/ELTeC/fra/FRA02203.html"/>
-    <hyperlink ref="A45" r:id="rId42" display="https://distantreading.github.io/ELTeC/fra/FRA02301.html"/>
-    <hyperlink ref="A46" r:id="rId43" display="https://distantreading.github.io/ELTeC/fra/FRA02302.html"/>
-    <hyperlink ref="A47" r:id="rId44" display="https://distantreading.github.io/ELTeC/fra/FRA02303.html"/>
-    <hyperlink ref="A48" r:id="rId45" display="https://distantreading.github.io/ELTeC/fra/FRA02401.html"/>
-    <hyperlink ref="A49" r:id="rId46" display="https://distantreading.github.io/ELTeC/fra/FRA02402.html"/>
-    <hyperlink ref="A50" r:id="rId47" display="https://distantreading.github.io/ELTeC/fra/FRA02501.html"/>
-    <hyperlink ref="A51" r:id="rId48" display="https://distantreading.github.io/ELTeC/fra/FRA02502.html"/>
-    <hyperlink ref="A52" r:id="rId49" display="https://distantreading.github.io/ELTeC/fra/FRA02601.html"/>
-    <hyperlink ref="A53" r:id="rId50" display="https://distantreading.github.io/ELTeC/fra/FRA02602.html"/>
-    <hyperlink ref="A54" r:id="rId51" display="https://distantreading.github.io/ELTeC/fra/FRA02603.html"/>
-    <hyperlink ref="A55" r:id="rId52" display="https://distantreading.github.io/ELTeC/fra/FRA02701.html"/>
-    <hyperlink ref="A56" r:id="rId53" display="https://distantreading.github.io/ELTeC/fra/FRA02702.html"/>
-    <hyperlink ref="A57" r:id="rId54" display="https://distantreading.github.io/ELTeC/fra/FRA02801.html"/>
-    <hyperlink ref="A58" r:id="rId55" display="https://distantreading.github.io/ELTeC/fra/FRA02802.html"/>
-    <hyperlink ref="A59" r:id="rId56" display="https://distantreading.github.io/ELTeC/fra/FRA02901.html"/>
-    <hyperlink ref="A60" r:id="rId57" display="https://distantreading.github.io/ELTeC/fra/FRA03001.html"/>
-    <hyperlink ref="A61" r:id="rId58" display="https://distantreading.github.io/ELTeC/fra/FRA03002.html"/>
-    <hyperlink ref="A62" r:id="rId59" display="https://distantreading.github.io/ELTeC/fra/FRA03003.html"/>
-    <hyperlink ref="A63" r:id="rId60" display="https://distantreading.github.io/ELTeC/fra/FRA03101.html"/>
-    <hyperlink ref="A64" r:id="rId61" display="https://distantreading.github.io/ELTeC/fra/FRA03102.html"/>
-    <hyperlink ref="A65" r:id="rId62" display="https://distantreading.github.io/ELTeC/fra/FRA03201.html"/>
-    <hyperlink ref="A66" r:id="rId63" display="https://distantreading.github.io/ELTeC/fra/FRA03202.html"/>
-    <hyperlink ref="A67" r:id="rId64" display="https://distantreading.github.io/ELTeC/fra/FRA03301.html"/>
-    <hyperlink ref="A68" r:id="rId65" display="https://distantreading.github.io/ELTeC/fra/FRA03302.html"/>
-    <hyperlink ref="A69" r:id="rId66" display="https://distantreading.github.io/ELTeC/fra/FRA03401.html"/>
-    <hyperlink ref="A70" r:id="rId67" display="https://distantreading.github.io/ELTeC/fra/FRA03601.html"/>
-    <hyperlink ref="A71" r:id="rId68" display="https://distantreading.github.io/ELTeC/fra/FRA03701.html"/>
-    <hyperlink ref="A72" r:id="rId69" display="https://distantreading.github.io/ELTeC/fra/FRA03702.html"/>
-    <hyperlink ref="A73" r:id="rId70" display="https://distantreading.github.io/ELTeC/fra/FRA03703.html"/>
-    <hyperlink ref="A74" r:id="rId71" display="https://distantreading.github.io/ELTeC/fra/FRA03801.html"/>
-    <hyperlink ref="A75" r:id="rId72" display="https://distantreading.github.io/ELTeC/fra/FRA03802.html"/>
-    <hyperlink ref="A76" r:id="rId73" display="https://distantreading.github.io/ELTeC/fra/FRA03901.html"/>
-    <hyperlink ref="A77" r:id="rId74" display="https://distantreading.github.io/ELTeC/fra/FRA03902.html"/>
-    <hyperlink ref="A78" r:id="rId75" display="https://distantreading.github.io/ELTeC/fra/FRA03903.html"/>
-    <hyperlink ref="A79" r:id="rId76" display="https://distantreading.github.io/ELTeC/fra/FRA04001.html"/>
-    <hyperlink ref="A80" r:id="rId77" display="https://distantreading.github.io/ELTeC/fra/FRA04002.html"/>
-    <hyperlink ref="A81" r:id="rId78" display="https://distantreading.github.io/ELTeC/fra/FRA04101.html"/>
-    <hyperlink ref="A82" r:id="rId79" display="https://distantreading.github.io/ELTeC/fra/FRA04102.html"/>
-    <hyperlink ref="A83" r:id="rId80" display="https://distantreading.github.io/ELTeC/fra/FRA04201.html"/>
-    <hyperlink ref="A84" r:id="rId81" display="https://distantreading.github.io/ELTeC/fra/FRA04202.html"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://distantreading.github.io/ELTeC/fra/FRA00101.html"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://distantreading.github.io/ELTeC/fra/FRA00102.html"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://distantreading.github.io/ELTeC/fra/FRA00201.html"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://distantreading.github.io/ELTeC/fra/FRA00301.html"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://distantreading.github.io/ELTeC/fra/FRA00302.html"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://distantreading.github.io/ELTeC/fra/FRA00401.html"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://distantreading.github.io/ELTeC/fra/FRA00501.html"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://distantreading.github.io/ELTeC/fra/FRA00502.html"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://distantreading.github.io/ELTeC/fra/FRA00503.html"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://distantreading.github.io/ELTeC/fra/FRA00601.html"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://distantreading.github.io/ELTeC/fra/FRA00602.html"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://distantreading.github.io/ELTeC/fra/FRA00701.html"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://distantreading.github.io/ELTeC/fra/FRA00802.html"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://distantreading.github.io/ELTeC/fra/FRA00901.html"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://distantreading.github.io/ELTeC/fra/FRA00903.html"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://distantreading.github.io/ELTeC/fra/FRA01001.html"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://distantreading.github.io/ELTeC/fra/FRA01101.html"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://distantreading.github.io/ELTeC/fra/FRA01102.html"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://distantreading.github.io/ELTeC/fra/FRA01201.html"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://distantreading.github.io/ELTeC/fra/FRA01202.html"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://distantreading.github.io/ELTeC/fra/FRA01203.html"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://distantreading.github.io/ELTeC/fra/FRA01301.html"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://distantreading.github.io/ELTeC/fra/FRA01302.html"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://distantreading.github.io/ELTeC/fra/FRA01303.html"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://distantreading.github.io/ELTeC/fra/FRA01401.html"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://distantreading.github.io/ELTeC/fra/FRA01402.html"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://distantreading.github.io/ELTeC/fra/FRA01403.html"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://distantreading.github.io/ELTeC/fra/FRA01501.html"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://distantreading.github.io/ELTeC/fra/FRA01601.html"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://distantreading.github.io/ELTeC/fra/FRA01602.html"/>
+    <hyperlink ref="A32" r:id="rId31" display="https://distantreading.github.io/ELTeC/fra/FRA01603.html"/>
+    <hyperlink ref="A33" r:id="rId32" display="https://distantreading.github.io/ELTeC/fra/FRA01701.html"/>
+    <hyperlink ref="A34" r:id="rId33" display="https://distantreading.github.io/ELTeC/fra/FRA01702.html"/>
+    <hyperlink ref="A35" r:id="rId34" display="https://distantreading.github.io/ELTeC/fra/FRA01801.html"/>
+    <hyperlink ref="A36" r:id="rId35" display="https://distantreading.github.io/ELTeC/fra/FRA01901.html"/>
+    <hyperlink ref="A37" r:id="rId36" display="https://distantreading.github.io/ELTeC/fra/FRA01902.html"/>
+    <hyperlink ref="A38" r:id="rId37" display="https://distantreading.github.io/ELTeC/fra/FRA02001.html"/>
+    <hyperlink ref="A39" r:id="rId38" display="https://distantreading.github.io/ELTeC/fra/FRA02101.html"/>
+    <hyperlink ref="A40" r:id="rId39" display="https://distantreading.github.io/ELTeC/fra/FRA02201.html"/>
+    <hyperlink ref="A41" r:id="rId40" display="https://distantreading.github.io/ELTeC/fra/FRA02202.html"/>
+    <hyperlink ref="A42" r:id="rId41" display="https://distantreading.github.io/ELTeC/fra/FRA02203.html"/>
+    <hyperlink ref="A43" r:id="rId42" display="https://distantreading.github.io/ELTeC/fra/FRA02301.html"/>
+    <hyperlink ref="A44" r:id="rId43" display="https://distantreading.github.io/ELTeC/fra/FRA02302.html"/>
+    <hyperlink ref="A45" r:id="rId44" display="https://distantreading.github.io/ELTeC/fra/FRA02303.html"/>
+    <hyperlink ref="A46" r:id="rId45" display="https://distantreading.github.io/ELTeC/fra/FRA02401.html"/>
+    <hyperlink ref="A47" r:id="rId46" display="https://distantreading.github.io/ELTeC/fra/FRA02402.html"/>
+    <hyperlink ref="A48" r:id="rId47" display="https://distantreading.github.io/ELTeC/fra/FRA02501.html"/>
+    <hyperlink ref="A49" r:id="rId48" display="https://distantreading.github.io/ELTeC/fra/FRA02502.html"/>
+    <hyperlink ref="A50" r:id="rId49" display="https://distantreading.github.io/ELTeC/fra/FRA02601.html"/>
+    <hyperlink ref="A51" r:id="rId50" display="https://distantreading.github.io/ELTeC/fra/FRA02602.html"/>
+    <hyperlink ref="A52" r:id="rId51" display="https://distantreading.github.io/ELTeC/fra/FRA02603.html"/>
+    <hyperlink ref="A53" r:id="rId52" display="https://distantreading.github.io/ELTeC/fra/FRA02701.html"/>
+    <hyperlink ref="A54" r:id="rId53" display="https://distantreading.github.io/ELTeC/fra/FRA02702.html"/>
+    <hyperlink ref="A55" r:id="rId54" display="https://distantreading.github.io/ELTeC/fra/FRA02801.html"/>
+    <hyperlink ref="A56" r:id="rId55" display="https://distantreading.github.io/ELTeC/fra/FRA02802.html"/>
+    <hyperlink ref="A57" r:id="rId56" display="https://distantreading.github.io/ELTeC/fra/FRA02901.html"/>
+    <hyperlink ref="A58" r:id="rId57" display="https://distantreading.github.io/ELTeC/fra/FRA03001.html"/>
+    <hyperlink ref="A59" r:id="rId58" display="https://distantreading.github.io/ELTeC/fra/FRA03002.html"/>
+    <hyperlink ref="A60" r:id="rId59" display="https://distantreading.github.io/ELTeC/fra/FRA03003.html"/>
+    <hyperlink ref="A61" r:id="rId60" display="https://distantreading.github.io/ELTeC/fra/FRA03101.html"/>
+    <hyperlink ref="A62" r:id="rId61" display="https://distantreading.github.io/ELTeC/fra/FRA03102.html"/>
+    <hyperlink ref="A63" r:id="rId62" display="https://distantreading.github.io/ELTeC/fra/FRA03201.html"/>
+    <hyperlink ref="A64" r:id="rId63" display="https://distantreading.github.io/ELTeC/fra/FRA03202.html"/>
+    <hyperlink ref="A65" r:id="rId64" display="https://distantreading.github.io/ELTeC/fra/FRA03301.html"/>
+    <hyperlink ref="A66" r:id="rId65" display="https://distantreading.github.io/ELTeC/fra/FRA03302.html"/>
+    <hyperlink ref="A67" r:id="rId66" display="https://distantreading.github.io/ELTeC/fra/FRA03401.html"/>
+    <hyperlink ref="A68" r:id="rId67" display="https://distantreading.github.io/ELTeC/fra/FRA03601.html"/>
+    <hyperlink ref="A69" r:id="rId68" display="https://distantreading.github.io/ELTeC/fra/FRA03701.html"/>
+    <hyperlink ref="A70" r:id="rId69" display="https://distantreading.github.io/ELTeC/fra/FRA03702.html"/>
+    <hyperlink ref="A71" r:id="rId70" display="https://distantreading.github.io/ELTeC/fra/FRA03703.html"/>
+    <hyperlink ref="A72" r:id="rId71" display="https://distantreading.github.io/ELTeC/fra/FRA03801.html"/>
+    <hyperlink ref="A73" r:id="rId72" display="https://distantreading.github.io/ELTeC/fra/FRA03802.html"/>
+    <hyperlink ref="A74" r:id="rId73" display="https://distantreading.github.io/ELTeC/fra/FRA03901.html"/>
+    <hyperlink ref="A75" r:id="rId74" display="https://distantreading.github.io/ELTeC/fra/FRA03902.html"/>
+    <hyperlink ref="A76" r:id="rId75" display="https://distantreading.github.io/ELTeC/fra/FRA03903.html"/>
+    <hyperlink ref="A77" r:id="rId76" display="https://distantreading.github.io/ELTeC/fra/FRA04001.html"/>
+    <hyperlink ref="A78" r:id="rId77" display="https://distantreading.github.io/ELTeC/fra/FRA04002.html"/>
+    <hyperlink ref="A79" r:id="rId78" display="https://distantreading.github.io/ELTeC/fra/FRA04101.html"/>
+    <hyperlink ref="A80" r:id="rId79" display="https://distantreading.github.io/ELTeC/fra/FRA04102.html"/>
+    <hyperlink ref="A81" r:id="rId80" display="https://distantreading.github.io/ELTeC/fra/FRA04201.html"/>
+    <hyperlink ref="A82" r:id="rId81" display="https://distantreading.github.io/ELTeC/fra/FRA04202.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId82"/>
